--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW30.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1172,7 +1172,7 @@
         <v>1.016450611780527</v>
       </c>
       <c r="E15">
-        <v>0.9897432928642794</v>
+        <v>0.98974329286428</v>
       </c>
       <c r="F15">
         <v>0.9994518592144367</v>
@@ -1202,10 +1202,60 @@
         <v>1.003096952322403</v>
       </c>
       <c r="O15">
-        <v>0.9963576958739538</v>
+        <v>0.9963576958739541</v>
       </c>
       <c r="P15">
         <v>0.9961858392172995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.021198791407562</v>
+      </c>
+      <c r="D16">
+        <v>0.947965306692434</v>
+      </c>
+      <c r="E16">
+        <v>1.009158055596972</v>
+      </c>
+      <c r="F16">
+        <v>0.9836816372300521</v>
+      </c>
+      <c r="G16">
+        <v>1.021198791407562</v>
+      </c>
+      <c r="H16">
+        <v>0.947965306692434</v>
+      </c>
+      <c r="I16">
+        <v>1.010922761479325</v>
+      </c>
+      <c r="J16">
+        <v>0.9884675095332603</v>
+      </c>
+      <c r="K16">
+        <v>1.006318362769948</v>
+      </c>
+      <c r="L16">
+        <v>0.9634924668811361</v>
+      </c>
+      <c r="M16">
+        <v>1.021198791407562</v>
+      </c>
+      <c r="N16">
+        <v>0.9785616811447031</v>
+      </c>
+      <c r="O16">
+        <v>0.9905009477317551</v>
+      </c>
+      <c r="P16">
+        <v>0.9914006114488363</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.021198791407562</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
@@ -1175,7 +1175,7 @@
         <v>1.016450611780527</v>
       </c>
       <c r="E15">
-        <v>0.98974329286428</v>
+        <v>0.9897432928642794</v>
       </c>
       <c r="F15">
         <v>0.9994518592144367</v>
@@ -1205,7 +1205,7 @@
         <v>1.003096952322403</v>
       </c>
       <c r="O15">
-        <v>0.9963576958739541</v>
+        <v>0.9963576958739538</v>
       </c>
       <c r="P15">
         <v>0.9961858392172995</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.125871999999999</v>
+        <v>1.021198791407562</v>
       </c>
       <c r="D10">
-        <v>0.8016879999999995</v>
+        <v>0.947965306692434</v>
       </c>
       <c r="E10">
-        <v>1.037456000000002</v>
+        <v>1.009158055596972</v>
       </c>
       <c r="F10">
-        <v>0.9499999999999996</v>
+        <v>0.9836816372300521</v>
       </c>
       <c r="G10">
-        <v>1.125871999999999</v>
+        <v>1.021198791407562</v>
       </c>
       <c r="H10">
-        <v>0.8016879999999995</v>
+        <v>0.947965306692434</v>
       </c>
       <c r="I10">
-        <v>1.068320000000001</v>
+        <v>1.010922761479325</v>
       </c>
       <c r="J10">
-        <v>0.956028000000001</v>
+        <v>0.9884675095332603</v>
       </c>
       <c r="K10">
-        <v>1.043344</v>
+        <v>1.006318362769948</v>
       </c>
       <c r="L10">
-        <v>0.8706359999999997</v>
+        <v>0.9634924668811361</v>
       </c>
       <c r="M10">
-        <v>1.125871999999999</v>
+        <v>1.021198791407562</v>
       </c>
       <c r="N10">
-        <v>0.9195720000000006</v>
+        <v>0.9785616811447031</v>
       </c>
       <c r="O10">
-        <v>0.978754</v>
+        <v>0.9905009477317551</v>
       </c>
       <c r="P10">
-        <v>0.9816680000000002</v>
+        <v>0.9914006114488363</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.15</v>
+        <v>1.098453209204291</v>
       </c>
       <c r="D11">
-        <v>0.82</v>
+        <v>0.7810760371435644</v>
       </c>
       <c r="E11">
-        <v>1.01</v>
+        <v>1.066828696537609</v>
       </c>
       <c r="F11">
-        <v>0.95</v>
+        <v>0.9499795435721158</v>
       </c>
       <c r="G11">
-        <v>1.15</v>
+        <v>1.098453209204291</v>
       </c>
       <c r="H11">
-        <v>0.82</v>
+        <v>0.7810760371435644</v>
       </c>
       <c r="I11">
-        <v>1.06</v>
+        <v>1.075826772574784</v>
       </c>
       <c r="J11">
-        <v>0.95</v>
+        <v>0.9638059435618732</v>
       </c>
       <c r="K11">
-        <v>1.05</v>
+        <v>1.036229960600813</v>
       </c>
       <c r="L11">
-        <v>0.88</v>
+        <v>0.8606823446529411</v>
       </c>
       <c r="M11">
-        <v>1.15</v>
+        <v>1.098453209204291</v>
       </c>
       <c r="N11">
-        <v>0.915</v>
+        <v>0.9239523668405867</v>
       </c>
       <c r="O11">
-        <v>0.9824999999999999</v>
+        <v>0.974084371614395</v>
       </c>
       <c r="P11">
-        <v>0.9837499999999999</v>
+        <v>0.9791103134809989</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.084411231641599</v>
+        <v>1.09854029567877</v>
       </c>
       <c r="D12">
-        <v>0.8923413127167985</v>
+        <v>0.7811274550559705</v>
       </c>
       <c r="E12">
-        <v>1.004751580364795</v>
+        <v>1.066754648534391</v>
       </c>
       <c r="F12">
-        <v>0.9690396882944012</v>
+        <v>0.9500166589137303</v>
       </c>
       <c r="G12">
-        <v>1.084411231641599</v>
+        <v>1.09854029567877</v>
       </c>
       <c r="H12">
-        <v>0.8923413127167985</v>
+        <v>0.7811274550559705</v>
       </c>
       <c r="I12">
-        <v>1.032737972838397</v>
+        <v>1.075821515089305</v>
       </c>
       <c r="J12">
-        <v>0.9683546396672051</v>
+        <v>0.9637363102482464</v>
       </c>
       <c r="K12">
-        <v>1.026916772454397</v>
+        <v>1.036256374261016</v>
       </c>
       <c r="L12">
-        <v>0.9279154753535991</v>
+        <v>0.86068014109276</v>
       </c>
       <c r="M12">
-        <v>1.084402867404798</v>
+        <v>1.09854029567877</v>
       </c>
       <c r="N12">
-        <v>0.9485464465407967</v>
+        <v>0.9239410517951807</v>
       </c>
       <c r="O12">
-        <v>0.9876359532543983</v>
+        <v>0.9741097645457155</v>
       </c>
       <c r="P12">
-        <v>0.988308584166399</v>
+        <v>0.9791166748592737</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949827067631782</v>
+        <v>1.098429041448336</v>
       </c>
       <c r="D13">
-        <v>0.9951524830716628</v>
+        <v>0.7810563918420345</v>
       </c>
       <c r="E13">
-        <v>0.9942966262926658</v>
+        <v>1.066880581823756</v>
       </c>
       <c r="F13">
-        <v>0.9941973807651598</v>
+        <v>0.9499973170460005</v>
       </c>
       <c r="G13">
-        <v>0.9949827067631782</v>
+        <v>1.098429041448336</v>
       </c>
       <c r="H13">
-        <v>0.9951524830716628</v>
+        <v>0.7810563918420345</v>
       </c>
       <c r="I13">
-        <v>0.9945912610004205</v>
+        <v>1.075858410989689</v>
       </c>
       <c r="J13">
-        <v>0.9951130030543366</v>
+        <v>0.9637923039635623</v>
       </c>
       <c r="K13">
-        <v>0.9948725045388911</v>
+        <v>1.036218923335608</v>
       </c>
       <c r="L13">
-        <v>0.9943262901273684</v>
+        <v>0.8606522761832536</v>
       </c>
       <c r="M13">
-        <v>0.9949820694039231</v>
+        <v>1.098429041448336</v>
       </c>
       <c r="N13">
-        <v>0.9947245546821644</v>
+        <v>0.9239684868328952</v>
       </c>
       <c r="O13">
-        <v>0.9946572992231666</v>
+        <v>0.9740908330400317</v>
       </c>
       <c r="P13">
-        <v>0.9946915319517105</v>
+        <v>0.97911065582903</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9954533880987118</v>
+        <v>1.125871999999999</v>
       </c>
       <c r="D14">
-        <v>1.003783467118812</v>
+        <v>0.8016879999999995</v>
       </c>
       <c r="E14">
-        <v>0.9895622596317956</v>
+        <v>1.037456000000002</v>
       </c>
       <c r="F14">
-        <v>0.9953073154643256</v>
+        <v>0.9499999999999996</v>
       </c>
       <c r="G14">
-        <v>0.9954533880987118</v>
+        <v>1.125871999999999</v>
       </c>
       <c r="H14">
-        <v>1.003783467118812</v>
+        <v>0.8016879999999995</v>
       </c>
       <c r="I14">
-        <v>0.99049986811397</v>
+        <v>1.068320000000001</v>
       </c>
       <c r="J14">
-        <v>0.9950954076631512</v>
+        <v>0.956028000000001</v>
       </c>
       <c r="K14">
-        <v>0.9951033642217916</v>
+        <v>1.043344</v>
       </c>
       <c r="L14">
-        <v>1.000223523914328</v>
+        <v>0.8706359999999997</v>
       </c>
       <c r="M14">
-        <v>0.9954533880987118</v>
+        <v>1.125871999999999</v>
       </c>
       <c r="N14">
-        <v>0.9966728633753039</v>
+        <v>0.9195720000000006</v>
       </c>
       <c r="O14">
-        <v>0.9960266075784113</v>
+        <v>0.978754</v>
       </c>
       <c r="P14">
-        <v>0.9956285742783608</v>
+        <v>0.9816680000000002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9797850196365724</v>
+        <v>1.15</v>
       </c>
       <c r="D15">
-        <v>1.016450611780527</v>
+        <v>0.82</v>
       </c>
       <c r="E15">
-        <v>0.9897432928642794</v>
+        <v>1.01</v>
       </c>
       <c r="F15">
-        <v>0.9994518592144367</v>
+        <v>0.95</v>
       </c>
       <c r="G15">
-        <v>0.9797850196365724</v>
+        <v>1.15</v>
       </c>
       <c r="H15">
-        <v>1.016450611780527</v>
+        <v>0.82</v>
       </c>
       <c r="I15">
-        <v>0.9864757834343013</v>
+        <v>1.06</v>
       </c>
       <c r="J15">
-        <v>0.9990156866583356</v>
+        <v>0.95</v>
       </c>
       <c r="K15">
-        <v>0.9894917592687033</v>
+        <v>1.05</v>
       </c>
       <c r="L15">
-        <v>1.00907270088124</v>
+        <v>0.88</v>
       </c>
       <c r="M15">
-        <v>0.9797687977095146</v>
+        <v>1.15</v>
       </c>
       <c r="N15">
-        <v>1.003096952322403</v>
+        <v>0.915</v>
       </c>
       <c r="O15">
-        <v>0.9963576958739538</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="P15">
-        <v>0.9961858392172995</v>
+        <v>0.9837499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.021198791407562</v>
+        <v>1.084411231641599</v>
       </c>
       <c r="D16">
-        <v>0.947965306692434</v>
+        <v>0.8923413127167985</v>
       </c>
       <c r="E16">
-        <v>1.009158055596972</v>
+        <v>1.004751580364795</v>
       </c>
       <c r="F16">
-        <v>0.9836816372300521</v>
+        <v>0.9690396882944012</v>
       </c>
       <c r="G16">
-        <v>1.021198791407562</v>
+        <v>1.084411231641599</v>
       </c>
       <c r="H16">
-        <v>0.947965306692434</v>
+        <v>0.8923413127167985</v>
       </c>
       <c r="I16">
-        <v>1.010922761479325</v>
+        <v>1.032737972838397</v>
       </c>
       <c r="J16">
-        <v>0.9884675095332603</v>
+        <v>0.9683546396672051</v>
       </c>
       <c r="K16">
-        <v>1.006318362769948</v>
+        <v>1.026916772454397</v>
       </c>
       <c r="L16">
-        <v>0.9634924668811361</v>
+        <v>0.9279154753535991</v>
       </c>
       <c r="M16">
-        <v>1.021198791407562</v>
+        <v>1.084402867404798</v>
       </c>
       <c r="N16">
-        <v>0.9785616811447031</v>
+        <v>0.9485464465407967</v>
       </c>
       <c r="O16">
-        <v>0.9905009477317551</v>
+        <v>0.9876359532543983</v>
       </c>
       <c r="P16">
-        <v>0.9914006114488363</v>
+        <v>0.988308584166399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9949827067631782</v>
+      </c>
+      <c r="D17">
+        <v>0.9951524830716628</v>
+      </c>
+      <c r="E17">
+        <v>0.9942966262926658</v>
+      </c>
+      <c r="F17">
+        <v>0.9941973807651598</v>
+      </c>
+      <c r="G17">
+        <v>0.9949827067631782</v>
+      </c>
+      <c r="H17">
+        <v>0.9951524830716628</v>
+      </c>
+      <c r="I17">
+        <v>0.9945912610004205</v>
+      </c>
+      <c r="J17">
+        <v>0.9951130030543366</v>
+      </c>
+      <c r="K17">
+        <v>0.9948725045388911</v>
+      </c>
+      <c r="L17">
+        <v>0.9943262901273684</v>
+      </c>
+      <c r="M17">
+        <v>0.9949820694039231</v>
+      </c>
+      <c r="N17">
+        <v>0.9947245546821644</v>
+      </c>
+      <c r="O17">
+        <v>0.9946572992231666</v>
+      </c>
+      <c r="P17">
+        <v>0.9946915319517105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9954533880987118</v>
+      </c>
+      <c r="D18">
+        <v>1.003783467118812</v>
+      </c>
+      <c r="E18">
+        <v>0.9895622596317956</v>
+      </c>
+      <c r="F18">
+        <v>0.9953073154643256</v>
+      </c>
+      <c r="G18">
+        <v>0.9954533880987118</v>
+      </c>
+      <c r="H18">
+        <v>1.003783467118812</v>
+      </c>
+      <c r="I18">
+        <v>0.99049986811397</v>
+      </c>
+      <c r="J18">
+        <v>0.9950954076631512</v>
+      </c>
+      <c r="K18">
+        <v>0.9951033642217916</v>
+      </c>
+      <c r="L18">
+        <v>1.000223523914328</v>
+      </c>
+      <c r="M18">
+        <v>0.9954533880987118</v>
+      </c>
+      <c r="N18">
+        <v>0.9966728633753039</v>
+      </c>
+      <c r="O18">
+        <v>0.9960266075784113</v>
+      </c>
+      <c r="P18">
+        <v>0.9956285742783608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9797850196365724</v>
+      </c>
+      <c r="D19">
+        <v>1.016450611780527</v>
+      </c>
+      <c r="E19">
+        <v>0.98974329286428</v>
+      </c>
+      <c r="F19">
+        <v>0.9994518592144367</v>
+      </c>
+      <c r="G19">
+        <v>0.9797850196365724</v>
+      </c>
+      <c r="H19">
+        <v>1.016450611780527</v>
+      </c>
+      <c r="I19">
+        <v>0.9864757834343013</v>
+      </c>
+      <c r="J19">
+        <v>0.9990156866583356</v>
+      </c>
+      <c r="K19">
+        <v>0.9894917592687033</v>
+      </c>
+      <c r="L19">
+        <v>1.00907270088124</v>
+      </c>
+      <c r="M19">
+        <v>0.9797687977095146</v>
+      </c>
+      <c r="N19">
+        <v>1.003096952322403</v>
+      </c>
+      <c r="O19">
+        <v>0.9963576958739541</v>
+      </c>
+      <c r="P19">
+        <v>0.9961858392172995</v>
       </c>
     </row>
   </sheetData>
